--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 8 (38, 9, 49, 26, 34)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(38, 9, 49, 26, 34)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999320172252542</v>
+        <v>0.9999932936434416</v>
       </c>
       <c r="E2">
-        <v>0.9999320172252542</v>
+        <v>0.9999932936434416</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999938417912987</v>
+        <v>0.9999070183706054</v>
       </c>
       <c r="E3">
-        <v>0.9999938417912987</v>
+        <v>0.9999070183706054</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9194861052013662</v>
+        <v>0.9398987122356667</v>
       </c>
       <c r="E4">
-        <v>0.9194861052013662</v>
+        <v>0.9398987122356667</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,13 +495,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.8556659385407051</v>
+        <v>0.07176928247659721</v>
       </c>
       <c r="E5">
-        <v>0.8556659385407051</v>
+        <v>0.07176928247659721</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.05946153241125959</v>
+        <v>0.3105843576357338</v>
       </c>
       <c r="E6">
-        <v>0.05946153241125959</v>
+        <v>0.3105843576357338</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9977848290891219</v>
+        <v>0.9966264512541333</v>
       </c>
       <c r="E7">
-        <v>0.002215170910878084</v>
+        <v>0.003373548745866706</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999999832503</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8">
-        <v>1.674971272791481E-11</v>
+        <v>2.220446049250313E-16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1268141104897246</v>
+        <v>0.03595781548410305</v>
       </c>
       <c r="E9">
-        <v>0.8731858895102754</v>
+        <v>0.964042184515897</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9999999991494062</v>
+        <v>0.9999999999894822</v>
       </c>
       <c r="E10">
-        <v>8.505938176028849E-10</v>
+        <v>1.051780884608888E-11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06984014498777756</v>
+        <v>0.08974363309369945</v>
       </c>
       <c r="E11">
-        <v>0.9301598550122224</v>
+        <v>0.9102563669063005</v>
       </c>
       <c r="F11">
-        <v>3.083903074264526</v>
+        <v>3.019325733184814</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
